--- a/PlanTest.xlsx
+++ b/PlanTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\CFPTI\2022-2023\At_Programmation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE68E7-80CF-4BDF-A38F-9785DC2B81D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E91262-F47A-4ACD-B654-C33935440F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6750C740-EC28-465D-A3B0-43306B0CC98C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>N° Test</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Résultat attendu</t>
   </si>
   <si>
-    <t>Remplir l’adresse e-mail et le mot de passe dans le formulaire de login.</t>
-  </si>
-  <si>
-    <t>Redirige le client vers la page de son compte</t>
-  </si>
-  <si>
     <t>Cliquer sur le bouton de déconnexion</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>Affiche un message de confirmation et ajoute le solde dans le compte courant sélectionné</t>
   </si>
   <si>
-    <t xml:space="preserve">Remplir une adresse e.mail ou un mot de passe incorrect </t>
-  </si>
-  <si>
     <t>Affiche un messsage d'erreur</t>
   </si>
   <si>
@@ -114,13 +105,82 @@
   </si>
   <si>
     <t xml:space="preserve">Affiche un message de confirmation et ajoute la valeur de la transaction dans le compte </t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour fixer un plafond mensuel selon mon envie pour moi-même, avec une valeur négative ou zéro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir le formulaire pour fixer un plafond mensuel selon mon envie pour moi-même avec une valeur positive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affiche un message de confirmation de et met le plafond demandé </t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour fixer un plafond mensuel selon mon envie pour l'utilisateur qui est invité sur le compte, avec une valeur négative ou zéro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir l'adresse e-mail et le mot de passe dans le formulaire de login. </t>
+  </si>
+  <si>
+    <t>Redirige l'employé vers la page de son compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir l'adresse e-mail et le mot de passe dans le formulaire de login incorrect </t>
+  </si>
+  <si>
+    <t>Affiche un message d'erreur</t>
+  </si>
+  <si>
+    <t>Remplir l’adresse e-mail qui n'existe pas pour le formulaire de login</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail sans @ pour le formulaire de login</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail avec de caractère spéciaux pour le formulaire de login</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail sans aucune données pour le formulaire de login</t>
+  </si>
+  <si>
+    <t>Remplir le mot de passe sans aucune données  pour le formulaire de login</t>
+  </si>
+  <si>
+    <t>Remplir le mot de passe incorrcte</t>
+  </si>
+  <si>
+    <t>Remplir le mot de passe caractère spéciaux</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail et un mot de passe correcte</t>
+  </si>
+  <si>
+    <t>Redirige l'utilisateur vers la page de son compte</t>
+  </si>
+  <si>
+    <t>employé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utilisateur </t>
+  </si>
+  <si>
+    <t>Remplir le mot de passe correcte pour changer mon mot de passe</t>
+  </si>
+  <si>
+    <t>Remplir le mot de passe caractère spéciaux pour changer mon mot de passe</t>
+  </si>
+  <si>
+    <t>Remplir le mot de passe incorrecte pour changer mon mot de passe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afffiche un message de confirmation pour le changement de mot de passe </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +215,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +249,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -194,12 +280,87 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -209,13 +370,70 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -224,91 +442,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -317,11 +458,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -329,22 +470,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -661,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9EB65-7617-45B5-B480-43ED6A57DE9C}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -676,181 +838,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5"/>
+      <c r="B2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="18" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="19" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="20" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="B24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
         <v>23</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="B30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
         <v>24</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="B31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="2"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>26</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>27</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>28</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>29</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>30</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>31</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>32</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>33</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>34</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>35</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>36</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>37</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>38</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PlanTest.xlsx
+++ b/PlanTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\CFPTI\2022-2023\At_Programmation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E91262-F47A-4ACD-B654-C33935440F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247DE625-5047-4125-890D-E7DC0EC610C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6750C740-EC28-465D-A3B0-43306B0CC98C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6750C740-EC28-465D-A3B0-43306B0CC98C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="163">
   <si>
     <t>N° Test</t>
   </si>
@@ -119,15 +119,6 @@
     <t>Remplir le formulaire pour fixer un plafond mensuel selon mon envie pour l'utilisateur qui est invité sur le compte, avec une valeur négative ou zéro</t>
   </si>
   <si>
-    <t xml:space="preserve">Remplir l'adresse e-mail et le mot de passe dans le formulaire de login. </t>
-  </si>
-  <si>
-    <t>Redirige l'employé vers la page de son compte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remplir l'adresse e-mail et le mot de passe dans le formulaire de login incorrect </t>
-  </si>
-  <si>
     <t>Affiche un message d'erreur</t>
   </si>
   <si>
@@ -174,6 +165,366 @@
   </si>
   <si>
     <t xml:space="preserve">Afffiche un message de confirmation pour le changement de mot de passe </t>
+  </si>
+  <si>
+    <t>Remplir le nom de l'utilisateur sans aucune données pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Remplir le nom de l'utilisateur avec de caractère spéciaux pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Remplir le prénom de l'utilisateur sans aucune données pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Remplir le prénom de l'utilisateur avec de caractère spéciaux pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail sans aucune données  pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail avec de caractère spéciaux pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail sans @ pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Remplir la permission de l'utilisateur en admin ou employé</t>
+  </si>
+  <si>
+    <t>Remplir le nom, le prénom, l'e-mail et la permission de user</t>
+  </si>
+  <si>
+    <t>Affiche un message de confirmation de création du compte et crée le compte</t>
+  </si>
+  <si>
+    <t>Changer le nom de l'utilisateur sans aucune données pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Changer le nom de l'utilisateur avec de caractère spéciaux pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Changer le prénom de l'utilisateur sans aucune données pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Changer le prénom de l'utilisateur avec de caractère spéciaux pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Changer une adresse e-mail sans aucune données  pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Changer une adresse e-mail sans @ pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Changer une adresse e-mail avec de caractère spéciaux pour la création d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Changer la permission de l'utilisateur en admin ou employé</t>
+  </si>
+  <si>
+    <t>Changer le nom, le prénom, l'e-mail et la permission de user</t>
+  </si>
+  <si>
+    <t>Affiche un message de confirmation de modification du compte modifier et met à jour les informations du compte</t>
+  </si>
+  <si>
+    <t>Appuyer sur le bouton supprimer pour supprimer un utilisateur</t>
+  </si>
+  <si>
+    <t>Affiche un message de suppression de compte utilisateur</t>
+  </si>
+  <si>
+    <t>Remplir le nom de l'utilisateur sans aucune données pour la création d'un compte bancaire</t>
+  </si>
+  <si>
+    <t>Remplir le nom de l'utilisateur avec de caractère spéciaux pour la création d'un compte bancaire</t>
+  </si>
+  <si>
+    <t>Remplir le prénom de l'utilisateur sans aucune données pour la création d'un compte bancaire</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail sans aucune données pour la création d'un compte bancaire</t>
+  </si>
+  <si>
+    <t>Remplir le prénom de l'utilisateur avec de caractère spéciaux pour la création d'un compte bancaire</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail sans @ pour la création d'un compte bancaire</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail avec de caractère spéciaux pour la création d'un compte bancaire</t>
+  </si>
+  <si>
+    <t>Remplir le nom, le prénom, l'e-mail et choisir le type de compte bancaire (épargne ou courant)</t>
+  </si>
+  <si>
+    <t>Ne pas remplir le type de compte bancaire shoutaié (épargne ou courant)</t>
+  </si>
+  <si>
+    <t>Afffiche un message de confirmation pour la création du compte bancaire et crée le compte banacaire</t>
+  </si>
+  <si>
+    <t>Remplir une valeur négative pour verser de l'argent sur un compte</t>
+  </si>
+  <si>
+    <t>Remplir une valeur null pour verser de l'argent sur un compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir une valeur positive pour verser de l'argent sur un compte </t>
+  </si>
+  <si>
+    <t>Affiche un message de confirmation pour le versement de la somme indiquée</t>
+  </si>
+  <si>
+    <t>Remplir une valeur négative pour retier de l'argent sur un compte</t>
+  </si>
+  <si>
+    <t>Remplir une valeur null pour retier de l'argent sur un compte</t>
+  </si>
+  <si>
+    <t>Remplir une valeur en dessus du solde du compte sur le quel on retire de l'argent du compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir une valeur positive et une valeur en dessous du solde pour retier de l'argent sur un compte </t>
+  </si>
+  <si>
+    <t>Affiche un message de confirmation pour retirer la somme indiquée</t>
+  </si>
+  <si>
+    <t>Affiche le solde du compte courant de l'utilisateur séléctionner</t>
+  </si>
+  <si>
+    <t>Affiche le solde du compte épargne de l'utilisateur séléctionner</t>
+  </si>
+  <si>
+    <t>Appuyer sur le bouton ou un lien consulter le solde du compte courant de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Appuyer sur le bouton ou un lien consulter le solde du compte épargne de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour ajouter du solde avec une valeur positive dans le compte courant de l'utilisateur sélectionné</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour ajouter du solde avec une valeur négative ou zéro dans le compte épargne de l'utilisateur sélectionné</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour ajouter du solde avec une valeur négative ou zéro dans le compte courant   de l'utilisateur séléctoinner</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour ajouter du solde avec une valeur positive dans le compte épargne de l'utilisateur sélectionné</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour retirer de l'argent du compte courant de l'utilisateur  à plus de 500 frs</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour retirer de l'argent du compte courant de l'utilisateur avec une valeur négative</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour retirer de l'argent du compte courant de l'utilisateur avec une valeur vide</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour retirer de l'argent du compte courant de l'utilisateur avec une valeur positive et en desous de 500 frs</t>
+  </si>
+  <si>
+    <t>Affiche un message de confirmation du retrait de l'argent indiqué du compte courant de l'utilisateur séléctionner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir le formulaire pour transférer de l'argent d'un compte à un autre avec avec une valeur vide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir le formulaire pour transférer de l'argent d'un compte à un autre avec avec une valeur négative </t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour transférer de l'argent d'un compte à un autre avec avec une valeur trop grande par rapport au solde du compte de l'envoyeur</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire pour transférer de l'argent d'un compte à un autre avec avec une valeur en desous du solde du compte de l'envoyeur et une valeur positive</t>
+  </si>
+  <si>
+    <t>Affiche un message de confirmation du transert de l'agrent du compte1 au compte2 et débit le montant du compte1 pour le verser dans le compte2</t>
+  </si>
+  <si>
+    <t>Appuyer sur le bouton pour débloquer un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Appuyer sur le bouton pour bloquer un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Afffiche un message du bloquage d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Afffiche un message du débloquage d'un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Remplir le nom de l'utilisateur1 et de l'utilisateur2 sans aucune données pour partager un compte banquaire à l'utilisateur2</t>
+  </si>
+  <si>
+    <t>Remplir le nom de l'utilisateur1 et de l'utilisateur2 avec de caractère spéciaux pour partager un compte banquaire à l'utilisateur2</t>
+  </si>
+  <si>
+    <t>Remplir le prénom de l'utilisateur1 et de l'utilisateur2 sans aucune données pour partager un compte banquaire à l'utilisateur2</t>
+  </si>
+  <si>
+    <t>Remplir le prénom de l'utilisateur1 et de l'utilisateur2 avec de caractère spéciaux pour partager un compte banquaire à l'utilisateur2</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail de l'utilisateur1 et de l'utilisateur2  sans aucune données pour partager un compte banquaire à l'utilisateur2</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail  de l'utilisateur1 et de l'utilisateur2 avec de caractère spéciaux pour partager un compte banquaire à l'utilisateur2</t>
+  </si>
+  <si>
+    <t>Remplir une adresse e-mail  de l'utilisateur1 et de l'utilisateur2 sans @ pour partager un compte banquaire à l'utilisateur2</t>
+  </si>
+  <si>
+    <t>Remplire un nom, un prénom, un e-mail de l'utilisateur1 et de l'utilisateur2 pour partager un compte banquaire à l'utilisateur2</t>
+  </si>
+  <si>
+    <t>Affiche un message de confirmation du partage du compte banquaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplire un plafond mensuel selon l'envie de l'utilisateur pour lui qui est d'une valeur négative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplire un plafond mensuel selon l'envie de l'utilisateur pour lui qui est d'une valeur positive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplire un plafond mensuel selon l'envie de l'utilisateur pour un invité qui est sur son compte qui est d'une valeur négative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplire un plafond mensuel selon l'envie de l'utilisateu  un invité qui est sur son compte qui est d'une valeur null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplire un plafond mensuel selon l'envie de l'utilisateur  pour un invité qui est sur un compte qui est d'une valeur positive </t>
+  </si>
+  <si>
+    <t>Affiche un message de création du plafond pour l'invité sur le compte de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Affiche un message de création du plafond  sur le compte de l'utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplire un plafond mensuel selon l'envie de l'utilisateu pour lui qui est d'une valeur null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer un taux d'intérêt d'un compte épargne d'un taux négative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer un taux d'intérêt d'un compte épargne d'un taux positive  </t>
+  </si>
+  <si>
+    <t>Changer un taux d'intérêt d'un compte épargne d'un taux null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afficher un message du changement du taux </t>
+  </si>
+  <si>
+    <t>administrateur</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire de login avec un e-mail incorrecte</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire de login avec un mot de passe incorrect</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire de login avec un e-mail et un mot de passe correct</t>
+  </si>
+  <si>
+    <t>Redirige sur la page d'administration</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire de création de compte utilisateur sans informations personnelles (nom, prénom, adresse, e-mail)</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire de création de compte utilisateur avec des informations personnelles (nom, prénom, adresse, e-mail)</t>
+  </si>
+  <si>
+    <t>Crée un compte utilisateur</t>
+  </si>
+  <si>
+    <t>Effacer les données du formulaire de modification de compte utilisateur</t>
+  </si>
+  <si>
+    <t>Changer les données du formulaire de modification de compte utilisateur</t>
+  </si>
+  <si>
+    <t>Modifie le compte utilisateur</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton de suppression de compte utilisateur</t>
+  </si>
+  <si>
+    <t>Supprime le compte utilisateur</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire de création de compte employé sans informations personnelles (nom, prénom, adresse, e-mail)</t>
+  </si>
+  <si>
+    <t>Remplir le formulaire de création de compte avec des informations personnelles (nom, prénom, adresse, e-mail)</t>
+  </si>
+  <si>
+    <t>Effacer les données du formulaire de modification</t>
+  </si>
+  <si>
+    <t>Changer les données du formulaire de modification</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, saisir une adresse mail</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, adresse mail invalide</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, ce compte n'existe pas</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, saisir un mot de passe</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, mot de passe invalide</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, mot de passe est fausse</t>
+  </si>
+  <si>
+    <t>Affiche un message d’erreur, saisir une valeur supérieur à zéro</t>
+  </si>
+  <si>
+    <t>Affiche un message d’erreur, saisir une valeur supérieur à zéro et en dessous du solde du compte</t>
+  </si>
+  <si>
+    <t>Affiche un message d’erreur, saisir une valeur supérieur à zéro et en dessous du solde du compte, IBAN invalide</t>
+  </si>
+  <si>
+    <t>Affiche un message d’erreur, saisir le mot de passe</t>
+  </si>
+  <si>
+    <t>Affiche un message d’erreur, mot de passe invalide</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, adresse mail n'existe pas</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, saisir le mot de passe</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, le mot de passe est invalide</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, saisir un nom</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur,  nom invalide</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, saisir un prénom</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, prénom invalide</t>
+  </si>
+  <si>
+    <t>Affiche un messsage d'erreur, permission non accorder</t>
   </si>
 </sst>
 </file>
@@ -236,7 +587,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,14 +600,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -373,47 +718,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -458,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,25 +792,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -823,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9EB65-7617-45B5-B480-43ED6A57DE9C}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -850,20 +1157,20 @@
     </row>
     <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="B2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -871,10 +1178,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -882,10 +1189,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -893,10 +1200,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -904,10 +1211,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -915,10 +1222,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -926,10 +1233,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -937,10 +1244,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -984,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1006,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1028,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1050,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1072,7 +1379,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1094,176 +1401,1380 @@
         <v>26</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
       <c r="B25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
-        <v>23</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
-        <v>24</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
-        <v>25</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
-        <v>26</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
-        <v>27</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
-        <v>28</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
-        <v>29</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
-        <v>30</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>31</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
-        <v>32</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
-        <v>33</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
-        <v>34</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
-        <v>35</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>36</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>37</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>38</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>43</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>44</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>45</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>46</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>47</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>48</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>49</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>50</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>51</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>52</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>53</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>54</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>55</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>56</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>57</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>58</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>59</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>60</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>61</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>62</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>63</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>64</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>65</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>66</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>67</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>68</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>69</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>70</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>71</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>72</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>73</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>74</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>75</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>76</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>77</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>78</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>79</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <v>80</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>81</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>82</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>83</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>84</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>85</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>86</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>87</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>88</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>89</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>90</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>91</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>92</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>93</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>94</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>95</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>96</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>97</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>98</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>99</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <v>100</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>101</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>102</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>103</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>104</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="16"/>
+    </row>
+    <row r="108" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>105</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>106</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <v>107</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <v>108</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>109</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>110</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>111</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>112</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>113</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="18"/>
+    </row>
+    <row r="117" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>114</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="18"/>
+    </row>
+    <row r="118" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>115</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" s="18"/>
+    </row>
+    <row r="119" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>116</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="18"/>
+    </row>
+    <row r="120" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>117</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="18"/>
+    </row>
+    <row r="121" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>118</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C121" s="18"/>
+    </row>
+    <row r="122" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>119</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="18"/>
+    </row>
+    <row r="123" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>120</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <v>121</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
+        <v>122</v>
+      </c>
+      <c r="B125" s="6"/>
+      <c r="C125" s="7"/>
+    </row>
+    <row r="126" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <v>123</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+    </row>
+    <row r="127" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
+        <v>124</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="7"/>
+    </row>
+    <row r="128" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="5">
+        <v>125</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
+    </row>
+    <row r="129" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <v>126</v>
+      </c>
+      <c r="B129" s="6"/>
+      <c r="C129" s="7"/>
+    </row>
+    <row r="130" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <v>127</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
+        <v>128</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
+    </row>
+    <row r="132" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <v>129</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="7"/>
+    </row>
+    <row r="133" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <v>130</v>
+      </c>
+      <c r="B133" s="6"/>
+      <c r="C133" s="7"/>
+    </row>
+    <row r="134" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <v>131</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="7"/>
+    </row>
+    <row r="135" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <v>132</v>
+      </c>
+      <c r="B135" s="6"/>
+      <c r="C135" s="7"/>
+    </row>
+    <row r="136" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <v>133</v>
+      </c>
+      <c r="B136" s="6"/>
+      <c r="C136" s="7"/>
+    </row>
+    <row r="137" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="5">
+        <v>134</v>
+      </c>
+      <c r="B137" s="6"/>
+      <c r="C137" s="7"/>
+    </row>
+    <row r="138" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
+        <v>135</v>
+      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="7"/>
+    </row>
+    <row r="139" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
+        <v>136</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="7"/>
+    </row>
+    <row r="140" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
+        <v>137</v>
+      </c>
+      <c r="B140" s="6"/>
+      <c r="C140" s="7"/>
+    </row>
+    <row r="141" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
+        <v>138</v>
+      </c>
+      <c r="B141" s="6"/>
+      <c r="C141" s="7"/>
+    </row>
+    <row r="142" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="5">
+        <v>139</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="7"/>
+    </row>
+    <row r="143" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="5">
+        <v>140</v>
+      </c>
+      <c r="B143" s="6"/>
+      <c r="C143" s="7"/>
+    </row>
+    <row r="144" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
+        <v>141</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
+    </row>
+    <row r="145" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
+        <v>142</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="7"/>
+    </row>
+    <row r="146" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <v>143</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <v>144</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>145</v>
+      </c>
+      <c r="B148" s="6"/>
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="5">
+        <v>146</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="7"/>
+    </row>
+    <row r="150" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
+        <v>147</v>
+      </c>
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
+    </row>
+    <row r="151" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="5">
+        <v>148</v>
+      </c>
+      <c r="B151" s="6"/>
+      <c r="C151" s="7"/>
+    </row>
+    <row r="152" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="5">
+        <v>149</v>
+      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="5">
+        <v>150</v>
+      </c>
+      <c r="B153" s="6"/>
+      <c r="C153" s="7"/>
+    </row>
+    <row r="154" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="5">
+        <v>151</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="5">
+        <v>152</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="7"/>
+    </row>
+    <row r="156" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
+        <v>153</v>
+      </c>
+      <c r="B156" s="6"/>
+      <c r="C156" s="7"/>
+    </row>
+    <row r="157" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="5">
+        <v>154</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="7"/>
+    </row>
+    <row r="158" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="5">
+        <v>155</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="7"/>
+    </row>
+    <row r="159" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="5">
+        <v>156</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="7"/>
+    </row>
+    <row r="160" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <v>157</v>
+      </c>
+      <c r="B160" s="6"/>
+      <c r="C160" s="7"/>
+    </row>
+    <row r="161" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="5">
+        <v>158</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="7"/>
+    </row>
+    <row r="162" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="5">
+        <v>159</v>
+      </c>
+      <c r="B162" s="6"/>
+      <c r="C162" s="7"/>
+    </row>
+    <row r="163" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="5">
+        <v>160</v>
+      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="7"/>
+    </row>
+    <row r="164" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
+        <v>161</v>
+      </c>
+      <c r="B164" s="6"/>
+      <c r="C164" s="7"/>
+    </row>
+    <row r="165" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="5">
+        <v>162</v>
+      </c>
+      <c r="B165" s="6"/>
+      <c r="C165" s="7"/>
+    </row>
+    <row r="166" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>163</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B107:C107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
